--- a/Documentatie/Data dictionary.xlsx
+++ b/Documentatie/Data dictionary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7DC235-BF98-4246-B92B-F97EE031C146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DBD81-4546-4CA7-8297-923E67020CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="600" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-3500" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data dictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
   <si>
     <t>Naam</t>
   </si>
@@ -67,9 +67,6 @@
     <t>De bankaccounts die bestaan binnen de applicatie</t>
   </si>
   <si>
-    <t>Account_number</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Rekeningnummer van het account</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -100,42 +94,21 @@
     <t>Naam van account eigenaar</t>
   </si>
   <si>
-    <t>Pincode</t>
-  </si>
-  <si>
-    <t>hashed password</t>
-  </si>
-  <si>
-    <t>Pincode van de rekening</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
-    <t>Saldo op de rekening</t>
-  </si>
-  <si>
     <t>Een bankrekening heeft één of meerdere transacties</t>
   </si>
   <si>
     <t>Transaction</t>
   </si>
   <si>
-    <t>Transaction_ID</t>
-  </si>
-  <si>
     <t>ID van een transactie</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Bedrag van de transactie</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
@@ -148,13 +121,82 @@
     <t>De transacties die worden gemaakt in de applicatie</t>
   </si>
   <si>
-    <t>Bankaccount_number</t>
-  </si>
-  <si>
     <t>Rekeningnummer betrokken bij de transactie</t>
   </si>
   <si>
     <t>Een transactie behoort tot één bankrekening</t>
+  </si>
+  <si>
+    <t>idRekeningen</t>
+  </si>
+  <si>
+    <t>ID van het account</t>
+  </si>
+  <si>
+    <t>RekeningNummer</t>
+  </si>
+  <si>
+    <t>Rekeningnummer van de gebruiker</t>
+  </si>
+  <si>
+    <t>RekeningPin</t>
+  </si>
+  <si>
+    <t>RekeningPinLength</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>hashed rekeningnummer</t>
+  </si>
+  <si>
+    <t>hashed Rekeningpin</t>
+  </si>
+  <si>
+    <t>Rekeningpin van de gebruiker</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>Lengte van de pincode</t>
+  </si>
+  <si>
+    <t>Geld van de gebruiker</t>
+  </si>
+  <si>
+    <t>Status of de gebruiker actief is</t>
+  </si>
+  <si>
+    <t>Status welke rol de gebruiker heeft</t>
+  </si>
+  <si>
+    <t>idTransacties</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>Rekeningen_idRekeningen</t>
+  </si>
+  <si>
+    <t>Status of het een opname of een storting was</t>
+  </si>
+  <si>
+    <t>Waarde van de transactie</t>
+  </si>
+  <si>
+    <t>#Transacties</t>
+  </si>
+  <si>
+    <t>#Rekeningen</t>
   </si>
 </sst>
 </file>
@@ -370,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -397,6 +439,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,20 +721,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J29"/>
+  <dimension ref="B2:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
     <col min="10" max="10" width="45.28515625" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -754,356 +799,565 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="H5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" s="12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="H6" s="23">
+        <v>45</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="H6" s="23">
-        <v>255</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="14">
+        <v>256</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="26">
+        <v>256</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="T24" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="T25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="14">
-        <v>255</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="15" t="s">
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T26" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T27" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T28" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+      <c r="T29" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T30" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T31" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T36" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T37" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T38" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
+    <row r="39" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T39" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T40" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
